--- a/backtest_GBPUSD-OTC_60s.xlsx
+++ b/backtest_GBPUSD-OTC_60s.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,18 +481,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46016.15833333333</v>
+        <v>46016.73125</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.351325</v>
+        <v>1.348875</v>
       </c>
       <c r="D2" t="n">
-        <v>1.351455</v>
+        <v>1.349245</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -500,29 +500,29 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.87</v>
+        <v>1.010800000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.87</v>
+        <v>1.010800000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46016.15902777778</v>
+        <v>46016.73194444444</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.351365</v>
+        <v>1.349255</v>
       </c>
       <c r="D3" t="n">
-        <v>1.350965</v>
+        <v>1.349955</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -530,29 +530,29 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.223760000000006</v>
+        <v>0.9140000000000006</v>
       </c>
       <c r="H3" t="n">
-        <v>2.093760000000006</v>
+        <v>1.924800000000002</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46016.15972222222</v>
+        <v>46016.73263888889</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.350935</v>
+        <v>1.349965</v>
       </c>
       <c r="D4" t="n">
-        <v>1.350795</v>
+        <v>1.349585</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -560,29 +560,29 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.010800000000001</v>
+        <v>0.87</v>
       </c>
       <c r="H4" t="n">
-        <v>3.104560000000007</v>
+        <v>2.794800000000002</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46016.16041666667</v>
+        <v>46016.73333333333</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.350805</v>
+        <v>1.349595</v>
       </c>
       <c r="D5" t="n">
-        <v>1.350435</v>
+        <v>1.349925</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -596,23 +596,23 @@
         <v>0.9140000000000006</v>
       </c>
       <c r="H5" t="n">
-        <v>4.018560000000008</v>
+        <v>3.708800000000003</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46016.16111111111</v>
+        <v>46016.73402777778</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.350425</v>
+        <v>1.349935</v>
       </c>
       <c r="D6" t="n">
-        <v>1.350535</v>
+        <v>1.349605</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -626,23 +626,23 @@
         <v>0.87</v>
       </c>
       <c r="H6" t="n">
-        <v>4.888560000000008</v>
+        <v>4.578800000000003</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46016.16180555556</v>
+        <v>46016.73472222222</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.350545</v>
+        <v>1.349625</v>
       </c>
       <c r="D7" t="n">
-        <v>1.350545</v>
+        <v>1.349905</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -656,23 +656,23 @@
         <v>1.010800000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>5.899360000000009</v>
+        <v>5.589600000000004</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46016.1625</v>
+        <v>46016.73888888889</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.350535</v>
+        <v>1.350955</v>
       </c>
       <c r="D8" t="n">
-        <v>1.350295</v>
+        <v>1.350475</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -680,18 +680,18 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9140000000000006</v>
+        <v>0.87</v>
       </c>
       <c r="H8" t="n">
-        <v>6.81336000000001</v>
+        <v>6.459600000000004</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46016.16319444445</v>
+        <v>46016.75555555556</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.350285</v>
+        <v>1.349505</v>
       </c>
       <c r="D9" t="n">
-        <v>1.350845</v>
+        <v>1.349545</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -716,23 +716,23 @@
         <v>0.87</v>
       </c>
       <c r="H9" t="n">
-        <v>7.68336000000001</v>
+        <v>7.329600000000005</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46016.16388888889</v>
+        <v>46016.76597222222</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.350865</v>
+        <v>1.352085</v>
       </c>
       <c r="D10" t="n">
-        <v>1.350725</v>
+        <v>1.352195</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -746,23 +746,23 @@
         <v>0.9140000000000006</v>
       </c>
       <c r="H10" t="n">
-        <v>8.597360000000011</v>
+        <v>8.243600000000004</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46016.17152777778</v>
+        <v>46016.80277777778</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.349005</v>
+        <v>1.356355</v>
       </c>
       <c r="D11" t="n">
-        <v>1.349225</v>
+        <v>1.356485</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -770,29 +770,29 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.87</v>
+        <v>0.9140000000000006</v>
       </c>
       <c r="H11" t="n">
-        <v>9.46736000000001</v>
+        <v>9.157600000000006</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46016.17222222222</v>
+        <v>46016.80555555555</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.349235</v>
+        <v>1.356715</v>
       </c>
       <c r="D12" t="n">
-        <v>1.348975</v>
+        <v>1.356695</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -800,29 +800,29 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.010800000000001</v>
+        <v>0.87</v>
       </c>
       <c r="H12" t="n">
-        <v>10.47816000000001</v>
+        <v>10.0276</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46016.17291666667</v>
+        <v>46016.84027777778</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.348965</v>
+        <v>1.355915</v>
       </c>
       <c r="D13" t="n">
-        <v>1.348285</v>
+        <v>1.356275</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -836,23 +836,23 @@
         <v>0.9140000000000006</v>
       </c>
       <c r="H13" t="n">
-        <v>11.39216000000001</v>
+        <v>10.9416</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46016.17361111111</v>
+        <v>46016.84305555555</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.348295</v>
+        <v>1.355915</v>
       </c>
       <c r="D14" t="n">
-        <v>1.348495</v>
+        <v>1.355745</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -866,12 +866,12 @@
         <v>0.87</v>
       </c>
       <c r="H14" t="n">
-        <v>12.26216000000001</v>
+        <v>11.8116</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46016.17430555556</v>
+        <v>46016.85972222222</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.348455</v>
+        <v>1.355525</v>
       </c>
       <c r="D15" t="n">
-        <v>1.348015</v>
+        <v>1.355455</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -890,18 +890,18 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1.010800000000001</v>
+        <v>0.9140000000000006</v>
       </c>
       <c r="H15" t="n">
-        <v>13.27296000000001</v>
+        <v>12.7256</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46016.175</v>
+        <v>46016.86388888889</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -909,29 +909,29 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.347995</v>
+        <v>1.356275</v>
       </c>
       <c r="D16" t="n">
-        <v>1.347915</v>
+        <v>1.355865</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9140000000000006</v>
+        <v>-8.040000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>14.18696000000001</v>
+        <v>4.685600000000003</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46016.17569444444</v>
+        <v>46016.90208333333</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -939,10 +939,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.347915</v>
+        <v>1.358365</v>
       </c>
       <c r="D17" t="n">
-        <v>1.347945</v>
+        <v>1.358685</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -956,12 +956,12 @@
         <v>0.87</v>
       </c>
       <c r="H17" t="n">
-        <v>15.05696000000001</v>
+        <v>5.555600000000003</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46016.17708333334</v>
+        <v>46016.90277777778</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -969,29 +969,29 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.348545</v>
+        <v>1.358675</v>
       </c>
       <c r="D18" t="n">
-        <v>1.348655</v>
+        <v>1.358465</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>0.87</v>
+        <v>-8.040000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>15.92696000000001</v>
+        <v>-2.484399999999998</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46016.19027777778</v>
+        <v>46016.90486111111</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -999,29 +999,29 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.346955</v>
+        <v>1.357615</v>
       </c>
       <c r="D19" t="n">
-        <v>1.347105</v>
+        <v>1.357595</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>0.87</v>
+        <v>-8.040000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>16.79696000000001</v>
+        <v>-10.5244</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46016.19097222222</v>
+        <v>46016.90555555555</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1029,10 +1029,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.347115</v>
+        <v>1.357545</v>
       </c>
       <c r="D20" t="n">
-        <v>1.347475</v>
+        <v>1.357105</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1040,18 +1040,18 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>0.87</v>
+        <v>1.010800000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>17.66696000000001</v>
+        <v>-9.513599999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46016.19166666667</v>
+        <v>46016.90625</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1059,10 +1059,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.347465</v>
+        <v>1.357155</v>
       </c>
       <c r="D21" t="n">
-        <v>1.347655</v>
+        <v>1.356735</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1070,18 +1070,18 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0.87</v>
+        <v>0.9140000000000006</v>
       </c>
       <c r="H21" t="n">
-        <v>18.53696000000001</v>
+        <v>-8.599599999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46016.19375</v>
+        <v>46016.90694444445</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.346775</v>
+        <v>1.356725</v>
       </c>
       <c r="D22" t="n">
-        <v>1.346875</v>
+        <v>1.357355</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1106,12 +1106,12 @@
         <v>0.87</v>
       </c>
       <c r="H22" t="n">
-        <v>19.40696000000002</v>
+        <v>-7.729599999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46016.19444444445</v>
+        <v>46016.90763888889</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.346885</v>
+        <v>1.357345</v>
       </c>
       <c r="D23" t="n">
-        <v>1.347425</v>
+        <v>1.357475</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1136,12 +1136,12 @@
         <v>0.87</v>
       </c>
       <c r="H23" t="n">
-        <v>20.27696000000002</v>
+        <v>-6.859599999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46016.19513888889</v>
+        <v>46016.91041666667</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.347435</v>
+        <v>1.356535</v>
       </c>
       <c r="D24" t="n">
-        <v>1.347895</v>
+        <v>1.355895</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1160,29 +1160,29 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0.87</v>
+        <v>0.9140000000000006</v>
       </c>
       <c r="H24" t="n">
-        <v>21.14696000000002</v>
+        <v>-5.945599999999998</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46016.20069444444</v>
+        <v>46016.91180555556</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.348515</v>
+        <v>1.356235</v>
       </c>
       <c r="D25" t="n">
-        <v>1.347935</v>
+        <v>1.356525</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1196,23 +1196,23 @@
         <v>0.87</v>
       </c>
       <c r="H25" t="n">
-        <v>22.01696000000002</v>
+        <v>-5.075599999999998</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46016.20138888889</v>
+        <v>46016.91597222222</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.347895</v>
+        <v>1.355175</v>
       </c>
       <c r="D26" t="n">
-        <v>1.347865</v>
+        <v>1.355345</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1226,23 +1226,23 @@
         <v>0.87</v>
       </c>
       <c r="H26" t="n">
-        <v>22.88696000000002</v>
+        <v>-4.205599999999998</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46016.20416666667</v>
+        <v>46016.91736111111</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.348545</v>
+        <v>1.355695</v>
       </c>
       <c r="D27" t="n">
-        <v>1.348485</v>
+        <v>1.356275</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1256,23 +1256,23 @@
         <v>0.87</v>
       </c>
       <c r="H27" t="n">
-        <v>23.75696000000002</v>
+        <v>-3.335599999999998</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46016.20763888889</v>
+        <v>46016.93194444444</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.348265</v>
+        <v>1.354805</v>
       </c>
       <c r="D28" t="n">
-        <v>1.347925</v>
+        <v>1.354865</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1286,12 +1286,12 @@
         <v>0.87</v>
       </c>
       <c r="H28" t="n">
-        <v>24.62696000000002</v>
+        <v>-2.465599999999998</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46016.21527777778</v>
+        <v>46016.93263888889</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1299,10 +1299,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.347595</v>
+        <v>1.354875</v>
       </c>
       <c r="D29" t="n">
-        <v>1.347565</v>
+        <v>1.354795</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1310,18 +1310,18 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9140000000000006</v>
+        <v>1.010800000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>25.54096000000002</v>
+        <v>-1.454799999999996</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46016.21666666667</v>
+        <v>46016.93333333333</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1329,10 +1329,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.348125</v>
+        <v>1.354765</v>
       </c>
       <c r="D30" t="n">
-        <v>1.347985</v>
+        <v>1.354535</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1340,18 +1340,18 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>1.223760000000006</v>
+        <v>0.9140000000000006</v>
       </c>
       <c r="H30" t="n">
-        <v>26.76472000000003</v>
+        <v>-0.5407999999999955</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46016.22222222222</v>
+        <v>46016.93402777778</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1359,10 +1359,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.346085</v>
+        <v>1.354545</v>
       </c>
       <c r="D31" t="n">
-        <v>1.346105</v>
+        <v>1.354625</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1376,12 +1376,12 @@
         <v>0.87</v>
       </c>
       <c r="H31" t="n">
-        <v>27.63472000000003</v>
+        <v>0.3292000000000045</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46016.22361111111</v>
+        <v>46016.93472222222</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1389,10 +1389,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.345725</v>
+        <v>1.354615</v>
       </c>
       <c r="D32" t="n">
-        <v>1.345605</v>
+        <v>1.353965</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1400,18 +1400,18 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>1.223760000000006</v>
+        <v>0.9140000000000006</v>
       </c>
       <c r="H32" t="n">
-        <v>28.85848000000004</v>
+        <v>1.243200000000005</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46016.22430555556</v>
+        <v>46016.93541666667</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.345565</v>
+        <v>1.354055</v>
       </c>
       <c r="D33" t="n">
-        <v>1.345305</v>
+        <v>1.354515</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1430,18 +1430,18 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.010800000000001</v>
+        <v>0.87</v>
       </c>
       <c r="H33" t="n">
-        <v>29.86928000000004</v>
+        <v>2.113200000000005</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46016.225</v>
+        <v>46016.94027777778</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1449,10 +1449,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.345315</v>
+        <v>1.353755</v>
       </c>
       <c r="D34" t="n">
-        <v>1.345085</v>
+        <v>1.354045</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1460,18 +1460,18 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9140000000000006</v>
+        <v>0.87</v>
       </c>
       <c r="H34" t="n">
-        <v>30.78328000000004</v>
+        <v>2.983200000000005</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46016.22569444445</v>
+        <v>46016.94305555556</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.345165</v>
+        <v>1.353745</v>
       </c>
       <c r="D35" t="n">
-        <v>1.345175</v>
+        <v>1.353585</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1490,18 +1490,18 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>0.87</v>
+        <v>0.9140000000000006</v>
       </c>
       <c r="H35" t="n">
-        <v>31.65328000000004</v>
+        <v>3.897200000000006</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46016.22638888889</v>
+        <v>46016.94375</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1509,10 +1509,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.345205</v>
+        <v>1.353605</v>
       </c>
       <c r="D36" t="n">
-        <v>1.345115</v>
+        <v>1.353705</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1520,29 +1520,29 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9140000000000006</v>
+        <v>0.87</v>
       </c>
       <c r="H36" t="n">
-        <v>32.56728000000004</v>
+        <v>4.767200000000006</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46016.22708333333</v>
+        <v>46016.95763888889</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1.345125</v>
+        <v>1.356275</v>
       </c>
       <c r="D37" t="n">
-        <v>1.345505</v>
+        <v>1.356885</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1550,18 +1550,18 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>0.87</v>
+        <v>0.9140000000000006</v>
       </c>
       <c r="H37" t="n">
-        <v>33.43728000000004</v>
+        <v>5.681200000000007</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46016.22777777778</v>
+        <v>46016.96805555555</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1569,10 +1569,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.345515</v>
+        <v>1.354845</v>
       </c>
       <c r="D38" t="n">
-        <v>1.345295</v>
+        <v>1.354155</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1586,12 +1586,12 @@
         <v>0.9140000000000006</v>
       </c>
       <c r="H38" t="n">
-        <v>34.35128000000004</v>
+        <v>6.595200000000007</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46016.23958333334</v>
+        <v>46016.96875</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1599,10 +1599,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.344045</v>
+        <v>1.354125</v>
       </c>
       <c r="D39" t="n">
-        <v>1.343885</v>
+        <v>1.354215</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1610,18 +1610,18 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9140000000000006</v>
+        <v>0.87</v>
       </c>
       <c r="H39" t="n">
-        <v>35.26528000000004</v>
+        <v>7.465200000000007</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46016.24027777778</v>
+        <v>46016.96944444445</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1629,10 +1629,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1.343895</v>
+        <v>1.354155</v>
       </c>
       <c r="D40" t="n">
-        <v>1.344355</v>
+        <v>1.354485</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1646,12 +1646,12 @@
         <v>0.87</v>
       </c>
       <c r="H40" t="n">
-        <v>36.13528000000004</v>
+        <v>8.335200000000007</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46016.24097222222</v>
+        <v>46016.97013888889</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1659,10 +1659,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1.344325</v>
+        <v>1.354445</v>
       </c>
       <c r="D41" t="n">
-        <v>1.344135</v>
+        <v>1.354465</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1670,18 +1670,18 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9140000000000006</v>
+        <v>0.87</v>
       </c>
       <c r="H41" t="n">
-        <v>37.04928000000004</v>
+        <v>9.205200000000007</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46016.24166666667</v>
+        <v>46016.97361111111</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1.344145</v>
+        <v>1.354015</v>
       </c>
       <c r="D42" t="n">
-        <v>1.344335</v>
+        <v>1.353685</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1700,18 +1700,18 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>0.87</v>
+        <v>0.9140000000000006</v>
       </c>
       <c r="H42" t="n">
-        <v>37.91928000000004</v>
+        <v>10.11920000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46016.24236111111</v>
+        <v>46016.97569444445</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1719,10 +1719,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1.344325</v>
+        <v>1.354275</v>
       </c>
       <c r="D43" t="n">
-        <v>1.344505</v>
+        <v>1.353915</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1730,29 +1730,29 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>0.87</v>
+        <v>0.9140000000000006</v>
       </c>
       <c r="H43" t="n">
-        <v>38.78928000000003</v>
+        <v>11.03320000000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46016.25069444445</v>
+        <v>46016.98194444444</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1.344495</v>
+        <v>1.353465</v>
       </c>
       <c r="D44" t="n">
-        <v>1.344255</v>
+        <v>1.353995</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1766,12 +1766,12 @@
         <v>0.87</v>
       </c>
       <c r="H44" t="n">
-        <v>39.65928000000003</v>
+        <v>11.90320000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46016.27013888889</v>
+        <v>46016.99722222222</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1779,10 +1779,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.343805</v>
+        <v>1.354315</v>
       </c>
       <c r="D45" t="n">
-        <v>1.343895</v>
+        <v>1.354345</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1796,12 +1796,12 @@
         <v>0.87</v>
       </c>
       <c r="H45" t="n">
-        <v>40.52928000000003</v>
+        <v>12.77320000000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46016.27916666667</v>
+        <v>46017.00208333333</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1809,10 +1809,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1.342595</v>
+        <v>1.353855</v>
       </c>
       <c r="D46" t="n">
-        <v>1.342745</v>
+        <v>1.354605</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1826,23 +1826,23 @@
         <v>0.87</v>
       </c>
       <c r="H46" t="n">
-        <v>41.39928000000003</v>
+        <v>13.64320000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46016.27986111111</v>
+        <v>46017.03472222222</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1.342725</v>
+        <v>1.358475</v>
       </c>
       <c r="D47" t="n">
-        <v>1.342395</v>
+        <v>1.358465</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1850,18 +1850,18 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1.223760000000006</v>
+        <v>0.87</v>
       </c>
       <c r="H47" t="n">
-        <v>42.62304000000003</v>
+        <v>14.5132</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>46016.28055555555</v>
+        <v>46017.05138888889</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1869,10 +1869,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.342385</v>
+        <v>1.356775</v>
       </c>
       <c r="D48" t="n">
-        <v>1.342175</v>
+        <v>1.357025</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1880,18 +1880,18 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1.010800000000001</v>
+        <v>0.87</v>
       </c>
       <c r="H48" t="n">
-        <v>43.63384000000003</v>
+        <v>15.3832</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>46016.28125</v>
+        <v>46017.05208333334</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1899,10 +1899,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.342145</v>
+        <v>1.357025</v>
       </c>
       <c r="D49" t="n">
-        <v>1.341525</v>
+        <v>1.356945</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1916,12 +1916,12 @@
         <v>0.9140000000000006</v>
       </c>
       <c r="H49" t="n">
-        <v>44.54784000000004</v>
+        <v>16.2972</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>46016.28194444445</v>
+        <v>46017.05277777778</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1929,10 +1929,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1.341515</v>
+        <v>1.356935</v>
       </c>
       <c r="D50" t="n">
-        <v>1.341525</v>
+        <v>1.357375</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1946,12 +1946,12 @@
         <v>0.87</v>
       </c>
       <c r="H50" t="n">
-        <v>45.41784000000003</v>
+        <v>17.1672</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>46016.28263888889</v>
+        <v>46017.05347222222</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1.341515</v>
+        <v>1.357365</v>
       </c>
       <c r="D51" t="n">
-        <v>1.341285</v>
+        <v>1.357795</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1970,18 +1970,18 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9140000000000006</v>
+        <v>0.87</v>
       </c>
       <c r="H51" t="n">
-        <v>46.33184000000004</v>
+        <v>18.03720000000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>46016.28402777778</v>
+        <v>46017.07152777778</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1989,10 +1989,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1.341425</v>
+        <v>1.356645</v>
       </c>
       <c r="D52" t="n">
-        <v>1.341455</v>
+        <v>1.356575</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2000,18 +2000,18 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>0.87</v>
+        <v>0.9140000000000006</v>
       </c>
       <c r="H52" t="n">
-        <v>47.20184000000003</v>
+        <v>18.95120000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>46016.28472222222</v>
+        <v>46017.07222222222</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2019,10 +2019,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1.341445</v>
+        <v>1.356565</v>
       </c>
       <c r="D53" t="n">
-        <v>1.342045</v>
+        <v>1.356925</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2036,23 +2036,23 @@
         <v>0.87</v>
       </c>
       <c r="H53" t="n">
-        <v>48.07184000000003</v>
+        <v>19.82120000000001</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>46016.30069444444</v>
+        <v>46017.07291666666</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1.344415</v>
+        <v>1.356935</v>
       </c>
       <c r="D54" t="n">
-        <v>1.344665</v>
+        <v>1.357125</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2060,18 +2060,18 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1.010800000000001</v>
+        <v>0.87</v>
       </c>
       <c r="H54" t="n">
-        <v>49.08264000000003</v>
+        <v>20.69120000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>46016.33263888889</v>
+        <v>46017.07430555556</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2079,10 +2079,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1.343455</v>
+        <v>1.357285</v>
       </c>
       <c r="D55" t="n">
-        <v>1.342935</v>
+        <v>1.357765</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2090,18 +2090,18 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9140000000000006</v>
+        <v>0.87</v>
       </c>
       <c r="H55" t="n">
-        <v>49.99664000000003</v>
+        <v>21.56120000000001</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>46016.33402777778</v>
+        <v>46017.07847222222</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2109,10 +2109,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1.342965</v>
+        <v>1.356425</v>
       </c>
       <c r="D56" t="n">
-        <v>1.343635</v>
+        <v>1.355955</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2120,18 +2120,18 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>0.87</v>
+        <v>1.010800000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>50.86664000000003</v>
+        <v>22.57200000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>46016.33472222222</v>
+        <v>46017.07916666667</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1.343645</v>
+        <v>1.355965</v>
       </c>
       <c r="D57" t="n">
-        <v>1.343705</v>
+        <v>1.355245</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2150,18 +2150,18 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>0.87</v>
+        <v>0.9140000000000006</v>
       </c>
       <c r="H57" t="n">
-        <v>51.73664000000003</v>
+        <v>23.48600000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>46016.33958333333</v>
+        <v>46017.07986111111</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2169,10 +2169,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1.342765</v>
+        <v>1.355205</v>
       </c>
       <c r="D58" t="n">
-        <v>1.343235</v>
+        <v>1.355215</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2186,12 +2186,12 @@
         <v>0.87</v>
       </c>
       <c r="H58" t="n">
-        <v>52.60664000000003</v>
+        <v>24.35600000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>46016.34027777778</v>
+        <v>46017.08055555556</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2199,10 +2199,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.343245</v>
+        <v>1.355215</v>
       </c>
       <c r="D59" t="n">
-        <v>1.343875</v>
+        <v>1.354895</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2210,29 +2210,29 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>0.87</v>
+        <v>0.9140000000000006</v>
       </c>
       <c r="H59" t="n">
-        <v>53.47664000000002</v>
+        <v>25.27000000000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>46016.35416666666</v>
+        <v>46017.08125</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1.345105</v>
+        <v>1.354885</v>
       </c>
       <c r="D60" t="n">
-        <v>1.345415</v>
+        <v>1.354985</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2240,29 +2240,29 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9140000000000006</v>
+        <v>0.87</v>
       </c>
       <c r="H60" t="n">
-        <v>54.39064000000003</v>
+        <v>26.14000000000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>46016.35486111111</v>
+        <v>46017.08194444444</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.345435</v>
+        <v>1.354985</v>
       </c>
       <c r="D61" t="n">
-        <v>1.345365</v>
+        <v>1.355425</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2276,23 +2276,23 @@
         <v>0.87</v>
       </c>
       <c r="H61" t="n">
-        <v>55.26064000000002</v>
+        <v>27.01000000000002</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>46016.37986111111</v>
+        <v>46017.08263888889</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1.347955</v>
+        <v>1.355385</v>
       </c>
       <c r="D62" t="n">
-        <v>1.348105</v>
+        <v>1.354065</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2306,23 +2306,23 @@
         <v>0.9140000000000006</v>
       </c>
       <c r="H62" t="n">
-        <v>56.17464000000002</v>
+        <v>27.92400000000002</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>46016.39444444444</v>
+        <v>46017.08472222222</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1.348955</v>
+        <v>1.354675</v>
       </c>
       <c r="D63" t="n">
-        <v>1.348255</v>
+        <v>1.354855</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2336,12 +2336,12 @@
         <v>0.87</v>
       </c>
       <c r="H63" t="n">
-        <v>57.04464000000002</v>
+        <v>28.79400000000002</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>46016.41805555556</v>
+        <v>46017.09513888889</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2349,10 +2349,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.348065</v>
+        <v>1.353015</v>
       </c>
       <c r="D64" t="n">
-        <v>1.347875</v>
+        <v>1.353135</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2360,18 +2360,18 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.9140000000000006</v>
+        <v>0.87</v>
       </c>
       <c r="H64" t="n">
-        <v>57.95864000000002</v>
+        <v>29.66400000000002</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>46016.41875</v>
+        <v>46017.09583333333</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2379,10 +2379,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.347865</v>
+        <v>1.353095</v>
       </c>
       <c r="D65" t="n">
-        <v>1.347975</v>
+        <v>1.353065</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2390,18 +2390,18 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>0.87</v>
+        <v>0.9140000000000006</v>
       </c>
       <c r="H65" t="n">
-        <v>58.82864000000002</v>
+        <v>30.57800000000002</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>46016.41944444444</v>
+        <v>46017.09652777778</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2409,10 +2409,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.347985</v>
+        <v>1.353035</v>
       </c>
       <c r="D66" t="n">
-        <v>1.347915</v>
+        <v>1.353545</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2420,18 +2420,18 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0.9140000000000006</v>
+        <v>0.87</v>
       </c>
       <c r="H66" t="n">
-        <v>59.74264000000002</v>
+        <v>31.44800000000002</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>46016.42013888889</v>
+        <v>46017.09722222222</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2439,10 +2439,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.347915</v>
+        <v>1.353525</v>
       </c>
       <c r="D67" t="n">
-        <v>1.348295</v>
+        <v>1.353415</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2450,18 +2450,18 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>0.87</v>
+        <v>0.9140000000000006</v>
       </c>
       <c r="H67" t="n">
-        <v>60.61264000000002</v>
+        <v>32.36200000000002</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>46016.42083333333</v>
+        <v>46017.11180555556</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2469,10 +2469,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1.348325</v>
+        <v>1.352085</v>
       </c>
       <c r="D68" t="n">
-        <v>1.348725</v>
+        <v>1.352295</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2486,12 +2486,12 @@
         <v>0.87</v>
       </c>
       <c r="H68" t="n">
-        <v>61.48264000000002</v>
+        <v>33.23200000000002</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>46016.43541666667</v>
+        <v>46017.1125</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2499,10 +2499,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1.348095</v>
+        <v>1.352265</v>
       </c>
       <c r="D69" t="n">
-        <v>1.348135</v>
+        <v>1.351815</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2510,18 +2510,18 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>0.87</v>
+        <v>1.010800000000001</v>
       </c>
       <c r="H69" t="n">
-        <v>62.35264000000002</v>
+        <v>34.24280000000002</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>46016.43611111111</v>
+        <v>46017.11319444444</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2529,10 +2529,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.348145</v>
+        <v>1.351805</v>
       </c>
       <c r="D70" t="n">
-        <v>1.348695</v>
+        <v>1.351385</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2540,18 +2540,18 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>0.87</v>
+        <v>0.9140000000000006</v>
       </c>
       <c r="H70" t="n">
-        <v>63.22264000000001</v>
+        <v>35.15680000000003</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>46016.43680555555</v>
+        <v>46017.11388888889</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2559,10 +2559,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.348655</v>
+        <v>1.351355</v>
       </c>
       <c r="D71" t="n">
-        <v>1.348715</v>
+        <v>1.351365</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2576,12 +2576,12 @@
         <v>0.87</v>
       </c>
       <c r="H71" t="n">
-        <v>64.09264000000002</v>
+        <v>36.02680000000002</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>46016.45416666667</v>
+        <v>46017.11458333334</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2589,10 +2589,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1.347905</v>
+        <v>1.351385</v>
       </c>
       <c r="D72" t="n">
-        <v>1.347725</v>
+        <v>1.351635</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2600,18 +2600,18 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1.223760000000006</v>
+        <v>0.87</v>
       </c>
       <c r="H72" t="n">
-        <v>65.31640000000002</v>
+        <v>36.89680000000002</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>46016.45694444444</v>
+        <v>46017.11527777778</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2619,10 +2619,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1.347265</v>
+        <v>1.351625</v>
       </c>
       <c r="D73" t="n">
-        <v>1.347405</v>
+        <v>1.352705</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2636,12 +2636,12 @@
         <v>0.87</v>
       </c>
       <c r="H73" t="n">
-        <v>66.18640000000002</v>
+        <v>37.76680000000002</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>46016.45763888889</v>
+        <v>46017.11597222222</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2649,29 +2649,29 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1.347365</v>
+        <v>1.352715</v>
       </c>
       <c r="D74" t="n">
-        <v>1.347375</v>
+        <v>1.352505</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G74" t="n">
-        <v>0.87</v>
+        <v>-8.040000000000001</v>
       </c>
       <c r="H74" t="n">
-        <v>67.05640000000002</v>
+        <v>29.72680000000002</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>46016.45833333334</v>
+        <v>46017.15972222222</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2679,10 +2679,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1.347355</v>
+        <v>1.355275</v>
       </c>
       <c r="D75" t="n">
-        <v>1.347595</v>
+        <v>1.355025</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2690,18 +2690,18 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>0.87</v>
+        <v>0.9140000000000006</v>
       </c>
       <c r="H75" t="n">
-        <v>67.92640000000003</v>
+        <v>30.64080000000002</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>46016.45902777778</v>
+        <v>46017.16111111111</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2709,10 +2709,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1.347615</v>
+        <v>1.355155</v>
       </c>
       <c r="D76" t="n">
-        <v>1.348355</v>
+        <v>1.355365</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2726,12 +2726,12 @@
         <v>0.87</v>
       </c>
       <c r="H76" t="n">
-        <v>68.79640000000003</v>
+        <v>31.51080000000002</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>46016.48055555556</v>
+        <v>46017.17222222222</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2739,10 +2739,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1.348115</v>
+        <v>1.353885</v>
       </c>
       <c r="D77" t="n">
-        <v>1.348155</v>
+        <v>1.354045</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
         <v>0.87</v>
       </c>
       <c r="H77" t="n">
-        <v>69.66640000000004</v>
+        <v>32.38080000000002</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>46016.48125</v>
+        <v>46017.17291666667</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2769,10 +2769,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1.348165</v>
+        <v>1.354055</v>
       </c>
       <c r="D78" t="n">
-        <v>1.348135</v>
+        <v>1.353875</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2780,18 +2780,18 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78" t="n">
-        <v>0.9140000000000006</v>
+        <v>1.010800000000001</v>
       </c>
       <c r="H78" t="n">
-        <v>70.58040000000004</v>
+        <v>33.39160000000003</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>46016.48194444444</v>
+        <v>46017.17430555556</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2799,10 +2799,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1.348105</v>
+        <v>1.353815</v>
       </c>
       <c r="D79" t="n">
-        <v>1.348815</v>
+        <v>1.354155</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2816,12 +2816,12 @@
         <v>0.87</v>
       </c>
       <c r="H79" t="n">
-        <v>71.45040000000004</v>
+        <v>34.26160000000002</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>46016.48263888889</v>
+        <v>46017.175</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2829,10 +2829,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1.348825</v>
+        <v>1.354145</v>
       </c>
       <c r="D80" t="n">
-        <v>1.349295</v>
+        <v>1.354025</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2840,18 +2840,18 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G80" t="n">
-        <v>0.87</v>
+        <v>1.010800000000001</v>
       </c>
       <c r="H80" t="n">
-        <v>72.32040000000005</v>
+        <v>35.27240000000003</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>46016.48611111111</v>
+        <v>46017.17708333334</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2859,10 +2859,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1.347645</v>
+        <v>1.353815</v>
       </c>
       <c r="D81" t="n">
-        <v>1.347775</v>
+        <v>1.353655</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2870,18 +2870,18 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>0.87</v>
+        <v>0.9140000000000006</v>
       </c>
       <c r="H81" t="n">
-        <v>73.19040000000005</v>
+        <v>36.18640000000003</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>46016.48680555556</v>
+        <v>46017.24722222222</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2889,29 +2889,29 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1.347785</v>
+        <v>1.358125</v>
       </c>
       <c r="D82" t="n">
-        <v>1.347925</v>
+        <v>1.358125</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G82" t="n">
-        <v>0.87</v>
+        <v>-8.040000000000001</v>
       </c>
       <c r="H82" t="n">
-        <v>74.06040000000006</v>
+        <v>28.14640000000003</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>46016.49305555555</v>
+        <v>46017.24861111111</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2919,10 +2919,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1.346815</v>
+        <v>1.357875</v>
       </c>
       <c r="D83" t="n">
-        <v>1.346515</v>
+        <v>1.357675</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2936,12 +2936,12 @@
         <v>0.9140000000000006</v>
       </c>
       <c r="H83" t="n">
-        <v>74.97440000000006</v>
+        <v>29.06040000000003</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>46016.49375</v>
+        <v>46017.24930555555</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1.346555</v>
+        <v>1.357665</v>
       </c>
       <c r="D84" t="n">
-        <v>1.346835</v>
+        <v>1.358185</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2966,12 +2966,12 @@
         <v>0.87</v>
       </c>
       <c r="H84" t="n">
-        <v>75.84440000000006</v>
+        <v>29.93040000000003</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>46016.49444444444</v>
+        <v>46017.25</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2979,10 +2979,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1.346875</v>
+        <v>1.358175</v>
       </c>
       <c r="D85" t="n">
-        <v>1.346625</v>
+        <v>1.358405</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2990,29 +2990,29 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0.9140000000000006</v>
+        <v>0.87</v>
       </c>
       <c r="H85" t="n">
-        <v>76.75840000000007</v>
+        <v>30.80040000000003</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>46016.5125</v>
+        <v>46017.25902777778</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1.345915</v>
+        <v>1.359835</v>
       </c>
       <c r="D86" t="n">
-        <v>1.346485</v>
+        <v>1.360465</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3020,18 +3020,18 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>0.87</v>
+        <v>0.9140000000000006</v>
       </c>
       <c r="H86" t="n">
-        <v>77.62840000000007</v>
+        <v>31.71440000000003</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>46016.51319444444</v>
+        <v>46017.27013888889</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -3039,29 +3039,29 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1.346505</v>
+        <v>1.358575</v>
       </c>
       <c r="D87" t="n">
-        <v>1.346145</v>
+        <v>1.358515</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F87" t="n">
         <v>3</v>
       </c>
       <c r="G87" t="n">
-        <v>1.223760000000006</v>
+        <v>-8.040000000000001</v>
       </c>
       <c r="H87" t="n">
-        <v>78.85216000000008</v>
+        <v>23.67440000000003</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>46016.51527777778</v>
+        <v>46017.27083333334</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -3069,10 +3069,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1.345695</v>
+        <v>1.358465</v>
       </c>
       <c r="D88" t="n">
-        <v>1.346105</v>
+        <v>1.358435</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3080,18 +3080,18 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G88" t="n">
-        <v>0.87</v>
+        <v>1.010800000000001</v>
       </c>
       <c r="H88" t="n">
-        <v>79.72216000000009</v>
+        <v>24.68520000000004</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>46016.51597222222</v>
+        <v>46017.27222222222</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3099,10 +3099,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1.346035</v>
+        <v>1.358125</v>
       </c>
       <c r="D89" t="n">
-        <v>1.345885</v>
+        <v>1.358655</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3110,29 +3110,29 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0.9140000000000006</v>
+        <v>0.87</v>
       </c>
       <c r="H89" t="n">
-        <v>80.63616000000009</v>
+        <v>25.55520000000004</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>46016.52777777778</v>
+        <v>46017.27291666667</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1.347335</v>
+        <v>1.358645</v>
       </c>
       <c r="D90" t="n">
-        <v>1.347085</v>
+        <v>1.358665</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3146,12 +3146,12 @@
         <v>0.87</v>
       </c>
       <c r="H90" t="n">
-        <v>81.50616000000009</v>
+        <v>26.42520000000004</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>46016.53263888889</v>
+        <v>46017.275</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3159,10 +3159,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1.345695</v>
+        <v>1.358085</v>
       </c>
       <c r="D91" t="n">
-        <v>1.345815</v>
+        <v>1.358505</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3176,12 +3176,12 @@
         <v>0.87</v>
       </c>
       <c r="H91" t="n">
-        <v>82.3761600000001</v>
+        <v>27.29520000000004</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>46016.53333333333</v>
+        <v>46017.27569444444</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3189,29 +3189,29 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1.345795</v>
+        <v>1.358495</v>
       </c>
       <c r="D92" t="n">
-        <v>1.345895</v>
+        <v>1.358465</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G92" t="n">
-        <v>0.87</v>
+        <v>-8.040000000000001</v>
       </c>
       <c r="H92" t="n">
-        <v>83.2461600000001</v>
+        <v>19.25520000000004</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>46016.53402777778</v>
+        <v>46017.28888888889</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -3219,10 +3219,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1.345925</v>
+        <v>1.357065</v>
       </c>
       <c r="D93" t="n">
-        <v>1.345685</v>
+        <v>1.357115</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3230,18 +3230,18 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0.9140000000000006</v>
+        <v>0.87</v>
       </c>
       <c r="H93" t="n">
-        <v>84.1601600000001</v>
+        <v>20.12520000000004</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>46016.53472222222</v>
+        <v>46017.28958333333</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -3249,10 +3249,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1.345735</v>
+        <v>1.357145</v>
       </c>
       <c r="D94" t="n">
-        <v>1.345895</v>
+        <v>1.356995</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3260,18 +3260,18 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G94" t="n">
-        <v>0.87</v>
+        <v>1.010800000000001</v>
       </c>
       <c r="H94" t="n">
-        <v>85.03016000000011</v>
+        <v>21.13600000000004</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>46016.53541666667</v>
+        <v>46017.29166666666</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3279,29 +3279,29 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1.345885</v>
+        <v>1.357485</v>
       </c>
       <c r="D95" t="n">
-        <v>1.345845</v>
+        <v>1.358055</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>-18.688</v>
+        <v>0.87</v>
       </c>
       <c r="H95" t="n">
-        <v>66.34216000000011</v>
+        <v>22.00600000000004</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>46016.53611111111</v>
+        <v>46017.33055555556</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3309,10 +3309,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1.345835</v>
+        <v>1.358995</v>
       </c>
       <c r="D96" t="n">
-        <v>1.345415</v>
+        <v>1.358505</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3320,18 +3320,18 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>1.223760000000006</v>
+        <v>0.9140000000000006</v>
       </c>
       <c r="H96" t="n">
-        <v>67.56592000000012</v>
+        <v>22.92000000000004</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>46016.5375</v>
+        <v>46017.33125</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -3339,10 +3339,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1.344745</v>
+        <v>1.358535</v>
       </c>
       <c r="D97" t="n">
-        <v>1.344745</v>
+        <v>1.358965</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3350,18 +3350,18 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0.9140000000000006</v>
+        <v>0.87</v>
       </c>
       <c r="H97" t="n">
-        <v>68.47992000000012</v>
+        <v>23.79000000000004</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>46016.53819444445</v>
+        <v>46017.33194444444</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -3369,10 +3369,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1.344715</v>
+        <v>1.358975</v>
       </c>
       <c r="D98" t="n">
-        <v>1.344835</v>
+        <v>1.358645</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3380,18 +3380,18 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>0.87</v>
+        <v>0.9140000000000006</v>
       </c>
       <c r="H98" t="n">
-        <v>69.34992000000013</v>
+        <v>24.70400000000004</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>46016.53888888889</v>
+        <v>46017.33263888889</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -3399,10 +3399,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1.344855</v>
+        <v>1.358675</v>
       </c>
       <c r="D99" t="n">
-        <v>1.345175</v>
+        <v>1.358975</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3416,12 +3416,12 @@
         <v>0.87</v>
       </c>
       <c r="H99" t="n">
-        <v>70.21992000000013</v>
+        <v>25.57400000000004</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>46016.53958333333</v>
+        <v>46017.34375</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3429,10 +3429,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1.345175</v>
+        <v>1.357555</v>
       </c>
       <c r="D100" t="n">
-        <v>1.345835</v>
+        <v>1.357945</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3446,12 +3446,12 @@
         <v>0.87</v>
       </c>
       <c r="H100" t="n">
-        <v>71.08992000000013</v>
+        <v>26.44400000000005</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>46016.55069444444</v>
+        <v>46017.34444444445</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3459,10 +3459,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1.344015</v>
+        <v>1.357935</v>
       </c>
       <c r="D101" t="n">
-        <v>1.343645</v>
+        <v>1.358075</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3470,18 +3470,18 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>1.010800000000001</v>
+        <v>0.87</v>
       </c>
       <c r="H101" t="n">
-        <v>72.10072000000014</v>
+        <v>27.31400000000005</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>46016.55138888889</v>
+        <v>46017.34722222222</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3489,10 +3489,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1.343635</v>
+        <v>1.357205</v>
       </c>
       <c r="D102" t="n">
-        <v>1.343345</v>
+        <v>1.357855</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3500,18 +3500,18 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>0.9140000000000006</v>
+        <v>0.87</v>
       </c>
       <c r="H102" t="n">
-        <v>73.01472000000014</v>
+        <v>28.18400000000005</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>46016.55208333334</v>
+        <v>46017.34791666667</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3519,10 +3519,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1.343365</v>
+        <v>1.357845</v>
       </c>
       <c r="D103" t="n">
-        <v>1.343815</v>
+        <v>1.357865</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3536,12 +3536,12 @@
         <v>0.87</v>
       </c>
       <c r="H103" t="n">
-        <v>73.88472000000014</v>
+        <v>29.05400000000005</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>46016.55277777778</v>
+        <v>46017.36180555556</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3549,29 +3549,29 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1.343825</v>
+        <v>1.356715</v>
       </c>
       <c r="D104" t="n">
-        <v>1.344265</v>
+        <v>1.356555</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G104" t="n">
-        <v>0.87</v>
+        <v>-8.040000000000001</v>
       </c>
       <c r="H104" t="n">
-        <v>74.75472000000015</v>
+        <v>21.01400000000005</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>46016.55347222222</v>
+        <v>46017.3625</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1.344275</v>
+        <v>1.356595</v>
       </c>
       <c r="D105" t="n">
-        <v>1.344295</v>
+        <v>1.356385</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3590,18 +3590,18 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G105" t="n">
-        <v>0.87</v>
+        <v>1.010800000000001</v>
       </c>
       <c r="H105" t="n">
-        <v>75.62472000000015</v>
+        <v>22.02480000000005</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>46016.56597222222</v>
+        <v>46017.36597222222</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3609,10 +3609,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1.343445</v>
+        <v>1.356475</v>
       </c>
       <c r="D106" t="n">
-        <v>1.343295</v>
+        <v>1.357325</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3620,18 +3620,18 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>1.010800000000001</v>
+        <v>0.87</v>
       </c>
       <c r="H106" t="n">
-        <v>76.63552000000016</v>
+        <v>22.89480000000005</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>46016.56666666667</v>
+        <v>46017.36944444444</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3639,10 +3639,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1.343305</v>
+        <v>1.356295</v>
       </c>
       <c r="D107" t="n">
-        <v>1.342435</v>
+        <v>1.356335</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3650,29 +3650,29 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>0.9140000000000006</v>
+        <v>0.87</v>
       </c>
       <c r="H107" t="n">
-        <v>77.54952000000016</v>
+        <v>23.76480000000005</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>46016.56736111111</v>
+        <v>46017.38819444444</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1.342455</v>
+        <v>1.359955</v>
       </c>
       <c r="D108" t="n">
-        <v>1.343095</v>
+        <v>1.359905</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -3686,23 +3686,23 @@
         <v>0.87</v>
       </c>
       <c r="H108" t="n">
-        <v>78.41952000000016</v>
+        <v>24.63480000000005</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>46016.56805555556</v>
+        <v>46017.39027777778</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1.343075</v>
+        <v>1.360105</v>
       </c>
       <c r="D109" t="n">
-        <v>1.343425</v>
+        <v>1.359925</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -3716,1297 +3716,7 @@
         <v>0.87</v>
       </c>
       <c r="H109" t="n">
-        <v>79.28952000000017</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
-        <v>46016.57083333333</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>CALL</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>1.342825</v>
-      </c>
-      <c r="D110" t="n">
-        <v>1.342935</v>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H110" t="n">
-        <v>80.15952000000017</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
-        <v>46016.58263888889</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>CALL</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>1.341785</v>
-      </c>
-      <c r="D111" t="n">
-        <v>1.341545</v>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F111" t="n">
-        <v>2</v>
-      </c>
-      <c r="G111" t="n">
-        <v>1.010800000000001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>81.17032000000017</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>46016.58333333334</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>CALL</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>1.341645</v>
-      </c>
-      <c r="D112" t="n">
-        <v>1.341555</v>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F112" t="n">
-        <v>1</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.9140000000000006</v>
-      </c>
-      <c r="H112" t="n">
-        <v>82.08432000000018</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
-        <v>46016.58402777778</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>CALL</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>1.341565</v>
-      </c>
-      <c r="D113" t="n">
-        <v>1.341675</v>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F113" t="n">
-        <v>0</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H113" t="n">
-        <v>82.95432000000018</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
-        <v>46016.58472222222</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>CALL</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>1.341685</v>
-      </c>
-      <c r="D114" t="n">
-        <v>1.341675</v>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F114" t="n">
-        <v>1</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.9140000000000006</v>
-      </c>
-      <c r="H114" t="n">
-        <v>83.86832000000018</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
-        <v>46016.59444444445</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>1.342645</v>
-      </c>
-      <c r="D115" t="n">
-        <v>1.342435</v>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F115" t="n">
-        <v>0</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H115" t="n">
-        <v>84.73832000000019</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
-        <v>46016.59513888889</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>1.342425</v>
-      </c>
-      <c r="D116" t="n">
-        <v>1.341755</v>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F116" t="n">
-        <v>0</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H116" t="n">
-        <v>85.60832000000019</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
-        <v>46016.59791666667</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>CALL</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>1.340835</v>
-      </c>
-      <c r="D117" t="n">
-        <v>1.340385</v>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F117" t="n">
-        <v>1</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.9140000000000006</v>
-      </c>
-      <c r="H117" t="n">
-        <v>86.52232000000019</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
-        <v>46016.59861111111</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>CALL</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>1.340365</v>
-      </c>
-      <c r="D118" t="n">
-        <v>1.340565</v>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F118" t="n">
-        <v>0</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H118" t="n">
-        <v>87.3923200000002</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
-        <v>46016.59930555556</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>CALL</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>1.340585</v>
-      </c>
-      <c r="D119" t="n">
-        <v>1.340465</v>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F119" t="n">
-        <v>1</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.9140000000000006</v>
-      </c>
-      <c r="H119" t="n">
-        <v>88.3063200000002</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
-        <v>46016.6</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>CALL</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>1.340485</v>
-      </c>
-      <c r="D120" t="n">
-        <v>1.340565</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F120" t="n">
-        <v>0</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H120" t="n">
-        <v>89.1763200000002</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
-        <v>46016.60138888889</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>CALL</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>1.340475</v>
-      </c>
-      <c r="D121" t="n">
-        <v>1.340175</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
-        <v>1</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.9140000000000006</v>
-      </c>
-      <c r="H121" t="n">
-        <v>90.0903200000002</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
-        <v>46016.60208333333</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>CALL</t>
-        </is>
-      </c>
-      <c r="C122" t="n">
-        <v>1.340145</v>
-      </c>
-      <c r="D122" t="n">
-        <v>1.340535</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F122" t="n">
-        <v>0</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H122" t="n">
-        <v>90.96032000000021</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
-        <v>46016.60277777778</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>CALL</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
-        <v>1.340525</v>
-      </c>
-      <c r="D123" t="n">
-        <v>1.340655</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F123" t="n">
-        <v>0</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H123" t="n">
-        <v>91.83032000000021</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
-        <v>46016.62430555555</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>CALL</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
-        <v>1.340945</v>
-      </c>
-      <c r="D124" t="n">
-        <v>1.341695</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H124" t="n">
-        <v>92.70032000000022</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
-        <v>46016.62777777778</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>CALL</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>1.340665</v>
-      </c>
-      <c r="D125" t="n">
-        <v>1.340755</v>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F125" t="n">
-        <v>0</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H125" t="n">
-        <v>93.57032000000022</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
-        <v>46016.63263888889</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>CALL</t>
-        </is>
-      </c>
-      <c r="C126" t="n">
-        <v>1.339395</v>
-      </c>
-      <c r="D126" t="n">
-        <v>1.339535</v>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F126" t="n">
-        <v>0</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H126" t="n">
-        <v>94.44032000000023</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
-        <v>46016.63333333333</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>CALL</t>
-        </is>
-      </c>
-      <c r="C127" t="n">
-        <v>1.339545</v>
-      </c>
-      <c r="D127" t="n">
-        <v>1.339815</v>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F127" t="n">
-        <v>0</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H127" t="n">
-        <v>95.31032000000023</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
-        <v>46016.63541666666</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>CALL</t>
-        </is>
-      </c>
-      <c r="C128" t="n">
-        <v>1.340355</v>
-      </c>
-      <c r="D128" t="n">
-        <v>1.340785</v>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F128" t="n">
-        <v>0</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H128" t="n">
-        <v>96.18032000000024</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
-        <v>46016.64583333334</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="C129" t="n">
-        <v>1.343095</v>
-      </c>
-      <c r="D129" t="n">
-        <v>1.343535</v>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F129" t="n">
-        <v>2</v>
-      </c>
-      <c r="G129" t="n">
-        <v>1.010800000000001</v>
-      </c>
-      <c r="H129" t="n">
-        <v>97.19112000000024</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
-        <v>46016.64652777778</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="C130" t="n">
-        <v>1.343545</v>
-      </c>
-      <c r="D130" t="n">
-        <v>1.344115</v>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F130" t="n">
-        <v>1</v>
-      </c>
-      <c r="G130" t="n">
-        <v>0.9140000000000006</v>
-      </c>
-      <c r="H130" t="n">
-        <v>98.10512000000024</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
-        <v>46016.64722222222</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="C131" t="n">
-        <v>1.344125</v>
-      </c>
-      <c r="D131" t="n">
-        <v>1.343845</v>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F131" t="n">
-        <v>0</v>
-      </c>
-      <c r="G131" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H131" t="n">
-        <v>98.97512000000025</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
-        <v>46016.64861111111</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="C132" t="n">
-        <v>1.344695</v>
-      </c>
-      <c r="D132" t="n">
-        <v>1.344685</v>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F132" t="n">
-        <v>0</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H132" t="n">
-        <v>99.84512000000025</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
-        <v>46016.66805555556</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="C133" t="n">
-        <v>1.346865</v>
-      </c>
-      <c r="D133" t="n">
-        <v>1.346875</v>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F133" t="n">
-        <v>1</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0.9140000000000006</v>
-      </c>
-      <c r="H133" t="n">
-        <v>100.7591200000003</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
-        <v>46016.67013888889</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="C134" t="n">
-        <v>1.347105</v>
-      </c>
-      <c r="D134" t="n">
-        <v>1.346775</v>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F134" t="n">
-        <v>0</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H134" t="n">
-        <v>101.6291200000003</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
-        <v>46016.67083333333</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="C135" t="n">
-        <v>1.346765</v>
-      </c>
-      <c r="D135" t="n">
-        <v>1.346805</v>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F135" t="n">
-        <v>1</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0.9140000000000006</v>
-      </c>
-      <c r="H135" t="n">
-        <v>102.5431200000003</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
-        <v>46016.67222222222</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="C136" t="n">
-        <v>1.346675</v>
-      </c>
-      <c r="D136" t="n">
-        <v>1.346685</v>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F136" t="n">
-        <v>2</v>
-      </c>
-      <c r="G136" t="n">
-        <v>1.010800000000001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>103.5539200000003</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
-        <v>46016.67569444444</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="C137" t="n">
-        <v>1.347285</v>
-      </c>
-      <c r="D137" t="n">
-        <v>1.347325</v>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F137" t="n">
-        <v>3</v>
-      </c>
-      <c r="G137" t="n">
-        <v>1.223760000000006</v>
-      </c>
-      <c r="H137" t="n">
-        <v>104.7776800000003</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
-        <v>46016.67847222222</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="C138" t="n">
-        <v>1.347505</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1.347465</v>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F138" t="n">
-        <v>0</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H138" t="n">
-        <v>105.6476800000003</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
-        <v>46016.68402777778</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>CALL</t>
-        </is>
-      </c>
-      <c r="C139" t="n">
-        <v>1.346845</v>
-      </c>
-      <c r="D139" t="n">
-        <v>1.347805</v>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F139" t="n">
-        <v>0</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H139" t="n">
-        <v>106.5176800000003</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
-        <v>46016.70625</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="C140" t="n">
-        <v>1.349435</v>
-      </c>
-      <c r="D140" t="n">
-        <v>1.349955</v>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F140" t="n">
-        <v>2</v>
-      </c>
-      <c r="G140" t="n">
-        <v>1.010800000000001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>107.5284800000003</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
-        <v>46016.70972222222</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="C141" t="n">
-        <v>1.349755</v>
-      </c>
-      <c r="D141" t="n">
-        <v>1.349275</v>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F141" t="n">
-        <v>0</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H141" t="n">
-        <v>108.3984800000003</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
-        <v>46016.71736111111</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>CALL</t>
-        </is>
-      </c>
-      <c r="C142" t="n">
-        <v>1.347255</v>
-      </c>
-      <c r="D142" t="n">
-        <v>1.347175</v>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F142" t="n">
-        <v>2</v>
-      </c>
-      <c r="G142" t="n">
-        <v>1.010800000000001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>109.4092800000003</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
-        <v>46016.71805555555</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>CALL</t>
-        </is>
-      </c>
-      <c r="C143" t="n">
-        <v>1.347205</v>
-      </c>
-      <c r="D143" t="n">
-        <v>1.346885</v>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F143" t="n">
-        <v>1</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0.9140000000000006</v>
-      </c>
-      <c r="H143" t="n">
-        <v>110.3232800000003</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
-        <v>46016.71875</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>CALL</t>
-        </is>
-      </c>
-      <c r="C144" t="n">
-        <v>1.346815</v>
-      </c>
-      <c r="D144" t="n">
-        <v>1.346855</v>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F144" t="n">
-        <v>0</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H144" t="n">
-        <v>111.1932800000003</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
-        <v>46016.71944444445</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>CALL</t>
-        </is>
-      </c>
-      <c r="C145" t="n">
-        <v>1.346845</v>
-      </c>
-      <c r="D145" t="n">
-        <v>1.346595</v>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F145" t="n">
-        <v>2</v>
-      </c>
-      <c r="G145" t="n">
-        <v>1.010800000000001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>112.2040800000003</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
-        <v>46016.72013888889</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>CALL</t>
-        </is>
-      </c>
-      <c r="C146" t="n">
-        <v>1.346635</v>
-      </c>
-      <c r="D146" t="n">
-        <v>1.346295</v>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F146" t="n">
-        <v>1</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0.9140000000000006</v>
-      </c>
-      <c r="H146" t="n">
-        <v>113.1180800000003</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
-        <v>46016.72083333333</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>CALL</t>
-        </is>
-      </c>
-      <c r="C147" t="n">
-        <v>1.346275</v>
-      </c>
-      <c r="D147" t="n">
-        <v>1.347065</v>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F147" t="n">
-        <v>0</v>
-      </c>
-      <c r="G147" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H147" t="n">
-        <v>113.9880800000003</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
-        <v>46016.72152777778</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>CALL</t>
-        </is>
-      </c>
-      <c r="C148" t="n">
-        <v>1.347075</v>
-      </c>
-      <c r="D148" t="n">
-        <v>1.346835</v>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F148" t="n">
-        <v>1</v>
-      </c>
-      <c r="G148" t="n">
-        <v>0.9140000000000006</v>
-      </c>
-      <c r="H148" t="n">
-        <v>114.9020800000003</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
-        <v>46016.73125</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="C149" t="n">
-        <v>1.348875</v>
-      </c>
-      <c r="D149" t="n">
-        <v>1.349245</v>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F149" t="n">
-        <v>2</v>
-      </c>
-      <c r="G149" t="n">
-        <v>1.010800000000001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>115.9128800000003</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
-        <v>46016.75555555556</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>CALL</t>
-        </is>
-      </c>
-      <c r="C150" t="n">
-        <v>1.349505</v>
-      </c>
-      <c r="D150" t="n">
-        <v>1.349545</v>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F150" t="n">
-        <v>0</v>
-      </c>
-      <c r="G150" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H150" t="n">
-        <v>116.7828800000003</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
-        <v>46016.76944444444</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="C151" t="n">
-        <v>1.351945</v>
-      </c>
-      <c r="D151" t="n">
-        <v>1.352125</v>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F151" t="n">
-        <v>3</v>
-      </c>
-      <c r="G151" t="n">
-        <v>1.223760000000006</v>
-      </c>
-      <c r="H151" t="n">
-        <v>118.0066400000003</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
-        <v>46016.80555555555</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="C152" t="n">
-        <v>1.356715</v>
-      </c>
-      <c r="D152" t="n">
-        <v>1.356695</v>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F152" t="n">
-        <v>0</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H152" t="n">
-        <v>118.8766400000003</v>
+        <v>25.50480000000005</v>
       </c>
     </row>
   </sheetData>
